--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3455457.062479521</v>
+        <v>3452439.472078586</v>
       </c>
     </row>
     <row r="7">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>116.7884123875573</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>172.0605432780341</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>33.84234274505287</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>199.6091794142932</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,10 +950,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>138.3038958997686</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>22.58276652364333</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.90187484148903</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>307.9222910483171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>166.111250386052</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>99.66075074687578</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>24.29263104716684</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>140.4503312970632</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>122.3137095599315</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>51.44029960352455</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>21.21224374176715</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,16 +2530,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>248.3506529283183</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.35146980185858</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274067</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.08275517394561</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>262.3063535056009</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.5645290049876</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3004,19 +3004,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>21.0494278683718</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>123.2661406957983</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>100.4040298646979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>101.0041688483414</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>109.9836834426669</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.5535868730191</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4153,7 +4153,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>135.4831612192889</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1470.569074795015</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C2" t="n">
-        <v>1101.606557854603</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D2" t="n">
-        <v>743.3408592478529</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E2" t="n">
-        <v>743.3408592478529</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859137</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408918</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1237.984104468507</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1237.984104468507</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1237.984104468507</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>826.9981996788993</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0343915770861</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>224.666950679165</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>224.666950679165</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>224.666950679165</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.75385709677187</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.75385709677187</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.75385709677187</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.75385709677187</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>224.666950679165</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>224.666950679165</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>224.666950679165</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>224.666950679165</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>224.666950679165</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005402</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8990031022959</v>
+        <v>632.718028414065</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.7321236244574</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4981,28 +4981,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,64 +5027,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5127,16 +5127,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>739.1390269937327</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C13" t="n">
-        <v>570.2028440658258</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D13" t="n">
-        <v>420.0862046534901</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>272.173111071097</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>272.173111071097</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>959.9316061372629</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.1390269937327</v>
+        <v>523.8169520164281</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5273,37 +5273,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>159.1396882805848</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1375.367068982215</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1086.238430195773</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>831.5539419898857</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>542.1367719529251</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>542.1367719529251</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.1367719529251</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,43 +5498,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>268.7602397026894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>118.6436002903537</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L21" t="n">
-        <v>745.6707680030233</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="23">
@@ -5981,52 +5981,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>824.3515998808207</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>824.3515998808207</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>824.3515998808207</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X25" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6206,52 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>638.8778922268336</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>469.9417092989268</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>469.9417092989268</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>810.2549326310403</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>555.5704444251535</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W28" t="n">
-        <v>266.1532743881928</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881928</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>820.5263570570734</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>2649.889045452864</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>2896.654173359328</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>3203.974306639289</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4008.38588490344</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4287.925950122137</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1440.770281663976</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1240.850271579528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T31" t="n">
-        <v>1017.064856369034</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4347.940519017357</v>
+        <v>265.3690873100869</v>
       </c>
       <c r="C34" t="n">
-        <v>4179.00433608945</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>4028.887696677114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>3880.974603094721</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3734.084655596811</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>4347.940519017357</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W34" t="n">
-        <v>4347.940519017357</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X34" t="n">
-        <v>4347.940519017357</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y34" t="n">
-        <v>4347.940519017357</v>
+        <v>447.0175521403266</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>346.5483970272223</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>198.6353034448292</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>198.6353034448292</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>198.6353034448292</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7372,10 +7372,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>199.2415044384084</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C43" t="n">
-        <v>199.2415044384084</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D43" t="n">
-        <v>199.2415044384084</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>199.2415044384084</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>199.2415044384084</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>199.2415044384084</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1187.901630733387</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>1187.901630733387</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188992</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="W43" t="n">
-        <v>420.0340835819385</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X43" t="n">
-        <v>420.0340835819385</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y43" t="n">
-        <v>199.2415044384084</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7640,46 +7640,46 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
         <v>3931.29497012173</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632138</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>822.148054050878</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684849</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7837,19 +7837,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557902</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y46" t="n">
-        <v>1278.123691414372</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>20.63789864135489</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814762</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>87.16935584025373</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863231</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524669962</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627449</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.03744927814762</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>142.2009374162107</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>85.25932409197392</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>99.23385149845778</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>174.2693557855126</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>125.221718904802</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>37.886699470259</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>89.35120747262356</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>23.93099889297645</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>52.39982339880519</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.197393230256</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>43.22742776757927</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25315,10 +25315,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>48.50979850283819</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25366,16 +25366,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25597,7 +25597,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>47.90965951919476</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>111.5638776157223</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,16 +26077,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>90.22649416974826</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="G2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="L2" t="n">
         <v>684300.8545409899</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="K2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409901</v>
-      </c>
       <c r="N2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.85454099</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.85454099</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430944</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430954</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430951</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430953</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,37 +26479,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110775.1523884616</v>
+        <v>-111190.3668979288</v>
       </c>
       <c r="C6" t="n">
-        <v>479192.7268260829</v>
+        <v>478777.5123166158</v>
       </c>
       <c r="D6" t="n">
-        <v>479192.726826083</v>
+        <v>478777.512316616</v>
       </c>
       <c r="E6" t="n">
-        <v>52441.99146106769</v>
+        <v>52107.82249393844</v>
       </c>
       <c r="F6" t="n">
-        <v>577602.0279379641</v>
+        <v>577267.8589708346</v>
       </c>
       <c r="G6" t="n">
-        <v>577602.0279379643</v>
+        <v>577267.8589708344</v>
       </c>
       <c r="H6" t="n">
-        <v>577602.027937964</v>
+        <v>577267.8589708344</v>
       </c>
       <c r="I6" t="n">
-        <v>577602.0279379637</v>
+        <v>577267.8589708345</v>
       </c>
       <c r="J6" t="n">
-        <v>401178.8087453711</v>
+        <v>400844.6397782413</v>
       </c>
       <c r="K6" t="n">
-        <v>577602.0279379643</v>
+        <v>577267.8589708345</v>
       </c>
       <c r="L6" t="n">
-        <v>577602.027937964</v>
+        <v>577267.8589708342</v>
       </c>
       <c r="M6" t="n">
-        <v>442801.0127041268</v>
+        <v>442466.8437369975</v>
       </c>
       <c r="N6" t="n">
-        <v>577602.0279379642</v>
+        <v>577267.8589708342</v>
       </c>
       <c r="O6" t="n">
-        <v>577602.0279379642</v>
+        <v>577267.8589708348</v>
       </c>
       <c r="P6" t="n">
-        <v>577602.0279379641</v>
+        <v>577267.8589708343</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>290.0876333541541</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.7236267427609</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>191.8673126439843</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>124.313593350064</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>189.4483625703663</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>112.3828552686949</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>46.76331713866882</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>247.672919634743</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>126.0489046421614</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29800,10 +29800,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29998,13 +29998,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,22 +30034,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.22928826677375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32877,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33114,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33351,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34062,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34536,10 +34536,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>62.54807759626155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>336.4270607962781</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178478</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782243</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3527969.141743392</v>
+        <v>3520952.12685168</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>230.23068660084</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>269.88545101545</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>94.69402002676111</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>146.0679947072585</v>
+        <v>94.86430758806003</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>242.0561981984261</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>69.57337214413594</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>39.04196664247878</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274073</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.36761062499782</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>65.54747322920284</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>200.5749791798103</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>85.39633870205208</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.4431276099409</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.7551669795695</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>113.236783968323</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>80.60629375430409</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>27.25813553797056</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896908</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385047</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>93.29384335020262</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>81.90355835744681</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>179.5232416718494</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>106.1694425852829</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.330101594739133</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>123.8159420274851</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>210.7852244112703</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.22335213854</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W2" t="n">
-        <v>1683.68911039962</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X2" t="n">
-        <v>1310.22335213854</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y2" t="n">
-        <v>1310.22335213854</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4424,7 +4424,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>195.2500315327868</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="V4" t="n">
-        <v>195.2500315327868</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D5" t="n">
         <v>632.3182666762915</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>1746.146322287575</v>
+        <v>2151.485713917717</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.146322287575</v>
+        <v>1778.019955656637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036446</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1666.64813361638</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1666.64813361638</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2626.872957539298</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656314</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>2053.247973680502</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.3791120239298</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>262.3791120239298</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>262.3791120239298</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>262.3791120239298</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5026,19 +5026,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5047,7 +5047,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141285</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678161</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O12" t="n">
-        <v>1841.18950298082</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.2212943649429</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>678.285111437036</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>528.1684720247002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>380.2553784423071</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>233.3654309443968</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.21084526296</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>847.2212943649429</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.2212943649429</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,22 +5275,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5299,19 +5299,19 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128704</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.3166078765829</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C16" t="n">
-        <v>310.3166078765829</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D16" t="n">
-        <v>310.3166078765829</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X16" t="n">
-        <v>531.109187020113</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.3166078765829</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>3276.77103143352</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>4081.182609697671</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3656.948913276599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>4347.940519017357</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>4093.25603081147</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>3803.838860774509</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>3803.838860774509</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>3803.838860774509</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4437.14914771935</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4437.14914771935</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4147.73197768239</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>4147.73197768239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4147.73197768239</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4073.312626376942</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C25" t="n">
-        <v>3904.376443449035</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D25" t="n">
-        <v>3904.376443449035</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E25" t="n">
-        <v>3756.463349866642</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368731</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4590.430816061401</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4590.430816061401</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4301.302177274959</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4301.302177274959</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>4301.302177274959</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>4073.312626376942</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y25" t="n">
-        <v>4073.312626376942</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="26">
@@ -6208,61 +6208,61 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822464</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823767</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514064</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690731</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409604</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748353</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742897</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769782</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805655</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465856</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.82404837232</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764782</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>3899.235428472198</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774858</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557067</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098065</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021843</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.92892764123</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409487</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681286</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475753</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710799</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4151.013344999871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3982.077162071964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3831.960522659629</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3831.960522659629</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3685.070575161718</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380583</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625194</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636323</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403506</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431054</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436451</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042134</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929843</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929843</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143401</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>4371.805924143401</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>4371.805924143401</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>4371.805924143401</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y28" t="n">
-        <v>4151.013344999871</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6490,19 +6490,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1106.500658293559</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1106.500658293559</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>851.8161700876719</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>562.3990000507114</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3914.311870797674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3914.311870797674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3914.311870797674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3766.398777215281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014291</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014291</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4606.170084808405</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4316.752914771444</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4316.752914771444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4095.960335627914</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6961,10 +6961,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2338.698370483031</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.6416868225887</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C37" t="n">
-        <v>544.6416868225887</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1404.680065153657</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1204.76005506921</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>980.9746398587152</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>980.9746398587152</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V37" t="n">
-        <v>726.2901516528284</v>
+        <v>731.3177283550798</v>
       </c>
       <c r="W37" t="n">
-        <v>726.2901516528284</v>
+        <v>441.9005583181192</v>
       </c>
       <c r="X37" t="n">
-        <v>726.2901516528284</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.2901516528284</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3262.052667528205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3569.372800808167</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>881.753191430675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>712.8170085027681</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.787631771461</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X40" t="n">
-        <v>1102.545770574205</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y40" t="n">
-        <v>881.753191430675</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>360.513228254778</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,10 +7587,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
@@ -7599,22 +7599,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1262.774559011158</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>973.645920224716</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>718.9614320188291</v>
       </c>
       <c r="W43" t="n">
-        <v>809.2953582963255</v>
+        <v>429.5442619818685</v>
       </c>
       <c r="X43" t="n">
-        <v>581.3058073983082</v>
+        <v>429.5442619818685</v>
       </c>
       <c r="Y43" t="n">
-        <v>360.513228254778</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1086.081892381262</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1086.081892381262</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>796.6647223443018</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>796.6647223443018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>285.1031356539341</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>158.872441903933</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>199.6230805871083</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>199.6230805871079</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>124.3400780863224</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>295.3773510571272</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N27" t="n">
-        <v>29.47535963978169</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>29.47535963978228</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7151863772038</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714817</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>295.3773510571273</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298476</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.7396287231151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6241510367934</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>39.88923345256728</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>169.2863157167184</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>142.1259578383797</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>80.88648941736633</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>51.56266414401773</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>81.09722976132551</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.38885257199637</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16564300403371</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>53.25678449505455</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>140.9412673040852</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>118.1629124849607</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.67050905359017</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.8060970315904</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>106.7141107267279</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>119.5402128037542</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>165.9167195038887</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>97.73161903090417</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>75.45212798730702</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698558.7304718539</v>
+        <v>698558.730471854</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
         <v>684300.8545409901</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="I2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="J2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.8545409899</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="K2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409905</v>
-      </c>
       <c r="P2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>2.277477051393362e-10</v>
+        <v>3.998865167886834e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.802132025361061e-11</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26441,19 +26441,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
+        <v>15045.66962143906</v>
+      </c>
+      <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="L4" t="n">
-        <v>15045.66962143909</v>
-      </c>
       <c r="M4" t="n">
+        <v>15045.66962143898</v>
+      </c>
+      <c r="N4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111190.3668979284</v>
+        <v>-111190.3668979288</v>
       </c>
       <c r="C6" t="n">
         <v>478777.5123166158</v>
       </c>
       <c r="D6" t="n">
-        <v>478777.5123166159</v>
+        <v>478777.5123166156</v>
       </c>
       <c r="E6" t="n">
-        <v>52107.82249393858</v>
+        <v>51133.23123421681</v>
       </c>
       <c r="F6" t="n">
-        <v>577267.8589708341</v>
+        <v>576293.2677111127</v>
       </c>
       <c r="G6" t="n">
-        <v>577267.858970835</v>
+        <v>576293.2677111131</v>
       </c>
       <c r="H6" t="n">
-        <v>577267.8589708348</v>
+        <v>576293.2677111129</v>
       </c>
       <c r="I6" t="n">
-        <v>577267.8589708346</v>
+        <v>576293.267711113</v>
       </c>
       <c r="J6" t="n">
-        <v>400844.6397782416</v>
+        <v>399870.0485185198</v>
       </c>
       <c r="K6" t="n">
-        <v>577267.8589708348</v>
+        <v>576293.2677111133</v>
       </c>
       <c r="L6" t="n">
-        <v>577267.8589708349</v>
+        <v>576293.2677111125</v>
       </c>
       <c r="M6" t="n">
-        <v>442466.8437369973</v>
+        <v>441492.2524772758</v>
       </c>
       <c r="N6" t="n">
-        <v>577267.8589708346</v>
+        <v>576293.2677111127</v>
       </c>
       <c r="O6" t="n">
-        <v>577267.8589708349</v>
+        <v>576293.2677111127</v>
       </c>
       <c r="P6" t="n">
-        <v>577267.8589708342</v>
+        <v>576293.267711113</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26822,13 +26822,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,37 +26968,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
+        <v>3.410605131648481e-13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.9539220428406</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>119.0102821165731</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16.39642322652776</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>191.8289783098299</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>203.1729740101545</v>
+        <v>254.376661129353</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>184.7423106070417</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>112.6268434222568</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>146.8749482135219</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106.3790813804525</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.39166538602668e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35020,13 +35020,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856232</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>492.1965505854587</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>406.7164955186331</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35971,7 +35971,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>510.0474576375741</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35983,7 +35983,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>457.5346514843354</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>544.6350560131515</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415059</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N27" t="n">
-        <v>362.6699330377946</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37162,16 +37162,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>577.7410532982354</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>287.7526615081892</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>353.8818559928177</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>373.0838068505802</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>418.5440206727427</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3520952.12685168</v>
+        <v>3525891.389700712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>124.490321361499</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>60.46179076613092</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>269.88545101545</v>
+        <v>102.5756487563988</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>126.4487704992912</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.86430758806003</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>69.57337214413594</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>320.797539652425</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.7268375758688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>200.5749791798103</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.64843562452403</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385047</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>230.1238602564263</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>81.90355835744681</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>179.5232416718494</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>123.8159420274851</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>558.825384592777</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>200.5596859860265</v>
       </c>
       <c r="E2" t="n">
         <v>74.81188663097703</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2636.076575092838</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2636.076575092838</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2636.076575092838</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2305.013687749267</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.245032479153</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1578.779274218073</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1188.639942242261</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>455.5174175241617</v>
+        <v>624.5172177858293</v>
       </c>
       <c r="V4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>606.5783214787459</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>606.5783214787459</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>606.5783214787459</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>195.5924166891384</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>181.6690126277293</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>181.6690126277293</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2151.485713917717</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1778.019955656637</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.880623680825</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4795,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,25 +4819,25 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2626.872957539298</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2373.111172177389</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
         <v>2373.111172177389</v>
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5029,22 +5029,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.156885434021</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,55 +5263,55 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141295</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.27469227828</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.814757496978</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V16" t="n">
-        <v>1185.240178049213</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W16" t="n">
-        <v>895.8230080122524</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>667.8334571142351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822458</v>
@@ -5518,22 +5518,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,16 +5594,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,37 +5740,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5943,13 +5943,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,34 +6211,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6442,31 +6442,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,19 +6481,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465302</v>
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9584588710877</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M30" t="n">
         <v>1332.091733170013</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.193690363625</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C37" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609666</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550798</v>
+        <v>666.3441745554783</v>
       </c>
       <c r="W37" t="n">
-        <v>441.9005583181192</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="X37" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y37" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,31 +7189,31 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>782.7991340754431</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>782.7991340754431</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>493.3819640384826</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1262.774559011158</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>973.645920224716</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>718.9614320188291</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>429.5442619818685</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>429.5442619818685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7830,25 +7830,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>32.78140656352423</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.872441903933</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>199.6230805871083</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>283.6093329825492</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>29.47535963978228</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298476</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>14.45548819888955</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>51.56266414401773</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43092547709122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>22.0137830674017</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.8060970315904</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>106.7141107267279</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.73161903090417</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="E2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.85454099</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="I2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="J2" t="n">
-        <v>684300.8545409901</v>
-      </c>
       <c r="K2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.85454099</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.85454099</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409902</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>3.998865167886834e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26444,13 +26444,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143898</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-111190.3668979288</v>
       </c>
       <c r="C6" t="n">
+        <v>478777.5123166157</v>
+      </c>
+      <c r="D6" t="n">
         <v>478777.5123166158</v>
       </c>
-      <c r="D6" t="n">
-        <v>478777.5123166156</v>
-      </c>
       <c r="E6" t="n">
-        <v>51133.23123421681</v>
+        <v>52010.36336796641</v>
       </c>
       <c r="F6" t="n">
-        <v>576293.2677111127</v>
+        <v>577170.3998448624</v>
       </c>
       <c r="G6" t="n">
-        <v>576293.2677111131</v>
+        <v>577170.3998448622</v>
       </c>
       <c r="H6" t="n">
-        <v>576293.2677111129</v>
+        <v>577170.3998448624</v>
       </c>
       <c r="I6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448623</v>
       </c>
       <c r="J6" t="n">
-        <v>399870.0485185198</v>
+        <v>400747.1806522696</v>
       </c>
       <c r="K6" t="n">
-        <v>576293.2677111133</v>
+        <v>577170.3998448628</v>
       </c>
       <c r="L6" t="n">
-        <v>576293.2677111125</v>
+        <v>577170.3998448622</v>
       </c>
       <c r="M6" t="n">
-        <v>441492.2524772758</v>
+        <v>442369.3846110255</v>
       </c>
       <c r="N6" t="n">
-        <v>576293.2677111127</v>
+        <v>577170.3998448625</v>
       </c>
       <c r="O6" t="n">
-        <v>576293.2677111127</v>
+        <v>577170.3998448622</v>
       </c>
       <c r="P6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448624</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26822,13 +26822,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>257.4400487107628</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.9539220428406</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>16.39642322652776</v>
+        <v>183.7062254855789</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25.48254574557008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>254.376661129353</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>146.8749482135219</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>6.954718817709931</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060685</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-2.842170943040401e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856232</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>282.0391115195485</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.8854746890071</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>406.7164955186331</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>594.0337100330154</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>180.0507982277215</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
